--- a/tanium_exclusions.xlsx
+++ b/tanium_exclusions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.v\Desktop\code\deepinstinct-rest-api-wrapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB95AB4F-1D7F-4DA5-A990-EC94095F4082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178B3566-D5CF-4D8F-95B8-7E67AA2CE2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="972" yWindow="4812" windowWidth="21276" windowHeight="18576" xr2:uid="{2BD41A49-0820-434A-A6DC-4D89221EB3A9}"/>
   </bookViews>
@@ -595,9 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D56C3A-A8A5-43A1-9EFD-4D48E4663CEA}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/tanium_exclusions.xlsx
+++ b/tanium_exclusions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.v\Desktop\code\deepinstinct-rest-api-wrapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178B3566-D5CF-4D8F-95B8-7E67AA2CE2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1696E4F6-0361-4F6C-AA5E-61625F2D8577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="972" yWindow="4812" windowWidth="21276" windowHeight="18576" xr2:uid="{2BD41A49-0820-434A-A6DC-4D89221EB3A9}"/>
+    <workbookView xWindow="19572" yWindow="4416" windowWidth="27468" windowHeight="20724" activeTab="3" xr2:uid="{2BD41A49-0820-434A-A6DC-4D89221EB3A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Process" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>Process</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>*\program files*\tanium\tanium client\tools\*\*.vbs</t>
+  </si>
+  <si>
+    <t>*\program files*\tanium\tanium client\patch\*\*.vbs</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A56C331-EFFE-42C7-958B-073836209D1A}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -593,9 +596,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D56C3A-A8A5-43A1-9EFD-4D48E4663CEA}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -636,6 +641,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tanium_exclusions.xlsx
+++ b/tanium_exclusions.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrick.v\Desktop\code\deepinstinct-rest-api-wrapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1696E4F6-0361-4F6C-AA5E-61625F2D8577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2395DABD-850E-41A8-9A3E-7F15D1FA821C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19572" yWindow="4416" windowWidth="27468" windowHeight="20724" activeTab="3" xr2:uid="{2BD41A49-0820-434A-A6DC-4D89221EB3A9}"/>
+    <workbookView xWindow="7656" yWindow="1848" windowWidth="35388" windowHeight="22296" xr2:uid="{2BD41A49-0820-434A-A6DC-4D89221EB3A9}"/>
+    <workbookView xWindow="7968" yWindow="2172" windowWidth="35340" windowHeight="20964" xr2:uid="{F99669A5-AEBA-4C5C-865F-57400DA3CC72}"/>
   </bookViews>
   <sheets>
     <sheet name="Process" sheetId="1" r:id="rId1"/>
@@ -18,6 +19,9 @@
     <sheet name="Behavioral" sheetId="3" r:id="rId3"/>
     <sheet name="Script" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Process!$A$1:$C$51</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="157">
   <si>
     <t>Process</t>
   </si>
@@ -52,18 +56,6 @@
     <t>All</t>
   </si>
   <si>
-    <t>*\Program Files*\Tanium\Tanium Client\TaniumClient.exe</t>
-  </si>
-  <si>
-    <t>*\Program Files*\Tanium\Tanium Client\TaniumCX.exe</t>
-  </si>
-  <si>
-    <t>Required for coexistence with Tanium</t>
-  </si>
-  <si>
-    <t>*\Program Files*\Tanium\Tanium Client\*</t>
-  </si>
-  <si>
     <t>Folder</t>
   </si>
   <si>
@@ -83,6 +75,444 @@
   </si>
   <si>
     <t>*\program files*\tanium\tanium client\patch\*\*.vbs</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\TaniumClient.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\TaniumCX.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\StdUtils\7za.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\StdUtils\runasuser.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\StdUtils\runasuser64.exe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?:\Program Files*\Tanium\Tanium Client\Tools\StdUtils\TaniumExecWrapper.exe </t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\StdUtils\TaniumFileInfo.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\StdUtils\TPowerShell.exe</t>
+  </si>
+  <si>
+    <t>Tanium Core Platform (https://docs.tanium.com/platform_deployment_reference/platform_deployment_reference/security_exceptions.html)</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\EPI\TaniumEndpointIndex.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\Asset\TaniumFileEvidence.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\StdUtils\*</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\TaniumSoftwareManager.dll</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\TaniumSoftwareManager.dll.sig</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\TaniumClientExtensions.dll</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\TaniumClientExtensions.dll.sig</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\SupportCX.dll</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\SupportCX.dll.sig</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\TaniumConfig.dll</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\TaniumConfig.dll.sig</t>
+  </si>
+  <si>
+    <t>Tanium Assett (https://docs.tanium.com/platform_deployment_reference/platform_deployment_reference/security_exceptions.html)</t>
+  </si>
+  <si>
+    <t>Tanium Client Management (https://docs.tanium.com/platform_deployment_reference/platform_deployment_reference/security_exceptions.html)</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\TaniumClientBootstrap.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\SetupClient.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\SetupClient.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\Discover\nmap\nmap.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files\Npcap*</t>
+  </si>
+  <si>
+    <t>Tanium Comply (https://docs.tanium.com/platform_deployment_reference/platform_deployment_reference/security_exceptions.html)</t>
+  </si>
+  <si>
+    <t>?:\Deploy\Tanium\*</t>
+  </si>
+  <si>
+    <t>Tanium Direct Connect (https://docs.tanium.com/platform_deployment_reference/platform_deployment_reference/security_exceptions.html)</t>
+  </si>
+  <si>
+    <t>Tanium Deploy (https://docs.tanium.com/platform_deployment_reference/platform_deployment_reference/security_exceptions.html)</t>
+  </si>
+  <si>
+    <t>Tanium Deploy, Tanium End-User Notifications (https://docs.tanium.com/platform_deployment_reference/platform_deployment_reference/security_exceptions.html)</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium End User Notification Tools\UserSessionProxy.exe</t>
+  </si>
+  <si>
+    <t>Tanium End-User Notifications (https://docs.tanium.com/platform_deployment_reference/platform_deployment_reference/security_exceptions.html)</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium End User Notification Tools\bin\end-user-notifications.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium End User Notification Tools\*</t>
+  </si>
+  <si>
+    <t>?:\programdata\Tanium\*</t>
+  </si>
+  <si>
+    <t>Tanium Enforce (https://docs.tanium.com/platform_deployment_reference/platform_deployment_reference/security_exceptions.html)</t>
+  </si>
+  <si>
+    <t>Tanium Integrity Monitor (https://docs.tanium.com/platform_deployment_reference/platform_deployment_reference/security_exceptions.html)</t>
+  </si>
+  <si>
+    <t>Tanium Map (https://docs.tanium.com/platform_deployment_reference/platform_deployment_reference/security_exceptions.html)</t>
+  </si>
+  <si>
+    <t>Tanium Patch (https://docs.tanium.com/platform_deployment_reference/platform_deployment_reference/security_exceptions.html)</t>
+  </si>
+  <si>
+    <t>Tanium Performance (https://docs.tanium.com/platform_deployment_reference/platform_deployment_reference/security_exceptions.html)</t>
+  </si>
+  <si>
+    <t>Tanium Provision (https://docs.tanium.com/platform_deployment_reference/platform_deployment_reference/security_exceptions.html)</t>
+  </si>
+  <si>
+    <t>Tanium Reveal (https://docs.tanium.com/platform_deployment_reference/platform_deployment_reference/security_exceptions.html)</t>
+  </si>
+  <si>
+    <t>Tanium Risk (https://docs.tanium.com/platform_deployment_reference/platform_deployment_reference/security_exceptions.html)</t>
+  </si>
+  <si>
+    <t>C:\Windows\system32\drivers\TaniumProcessMonitor.dll</t>
+  </si>
+  <si>
+    <t>Tanium Threat Response (https://docs.tanium.com/platform_deployment_reference/platform_deployment_reference/security_exceptions.html)</t>
+  </si>
+  <si>
+    <t>?:\Windows\System32\drivers\TaniumRecorderDrv.sys</t>
+  </si>
+  <si>
+    <t>?:\Windows\SysWOW64\TaniumProcessMonitor.dll</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\comply\jre\bin\java.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Python??\TPython.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\Deploy\7za.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\SoftwareManagement\7za.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\Enforce\devcon32.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\Enforce\LocalPolicyTool.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\IM\TaniumSQLiteQuery.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\IM\TaniumExecWrapper.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Patch\tools\active-user-sessions.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Patch\tools\TaniumExecWrapper.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Patch\tools\TaniumFileInfo.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Patch\tools\TaniumUpdateSearcher.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\Performance\TaniumTSDB.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\Provision\TaniumODJ.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\Provision\TaniumODJ_x86.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\Provision\TaniumPXE.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\IR\TaniumExecWrapper.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\IR\TanFileInfo.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\IR\TaniumFileInfo.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\IR\TaniumHandle.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\IR\TaniumListModules.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\recorder\TaniumRecorderCtl.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\Detect3\TaniumDetectEngine.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\tools\driver\TaniumDriverCtl.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\tools\driver\TaniumDriverCtl64.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\tools\driver\TaniumDriverSvc.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\tools\driver\TaniumDriverSvc64.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\tools\driver\service\TaniumDriverSvc.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\tools\driver\service\TaniumDriverSvc64.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Downloads\Action_*\TaniumFileTransfer.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Downloads\Action_*\Winpmem.gb414603.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\IR\TaniumPersistenceAnalyzer.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Python27\TPython.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Python38\TPython.exe</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\TaniumDEC.dll</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\TaniumDEC.dll.sig</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\TaniumDiscover.dll</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\TaniumDiscover.dll.sig</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\TaniumExtras.dll</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\TaniumExtras.dll.sig</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\TaniumComply.dll</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\TaniumComply.dll.sig</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\comply\data\comply.db</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\comply\data\current-ciscat-config.json</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\comply\data\current-intel-config.json</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\comply\data\current-java-config.json</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\comply\data\current-joval-config.json</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\comply\data\current-scan-config.json</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\comply\downloads\download.db</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\Comply\run-assessment.vbs</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\Comply\delete-assessment.vbs</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Python??\*</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\discover\data\discover.db</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\discover\data\discover.db-wal</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\discover\data\discover.db-shm</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\TaniumRecorder.dll</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\TaniumRecorder.dll.sig</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\recorder\proc.bin</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\recorder\recorder.db</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\recorder\recorder.db-shm</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\recorder\recorder.db-wal</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\core\libTaniumPythonCx.dll</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\core\libTaniumPythonCx.dll.sig</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\core\TaniumPythonCX.dll</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\core\TaniumPythonCX.dll.sig</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\mapcx\py\cx_entry.py</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\mapcx\data\map.db</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Patch\tanium-patch.min.vbs</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Patch\scans\Wsusscn2.cab</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Patch\tools\run-patch-manager.min.vbs</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\TaniumPerformance.dll</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\TaniumPerformance.dll.sig</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\TaniumTSDB.dll</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\TaniumTSDB.dll.sig</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\performance\performance.db</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\performance\performance.db-shm</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\performance\performance.db-wal</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\Provision\*</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\TaniumReveal.dll</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\TaniumReveal.dll.sig</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\TaniumIndex.dll</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\TaniumIndex.dll.sig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	?:\Program Files*\Tanium\Tanium Client\extensions\TaniumRisk.dll</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\tools\driver\TaniumProcessMonitor.dll</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\tools\driver\TaniumProcessMonitor64.dll</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\TaniumThreatResponse.dll</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\TaniumThreatResponse.dll.sig</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\Tools\IR\PowerForensics\PowerForensics.dll</t>
+  </si>
+  <si>
+    <t>?:\Program Files*\Tanium\Tanium Client\extensions\stream\*</t>
+  </si>
+  <si>
+    <t>Tanium Map, Tanium Reveal, Tanium Threat Response (https://docs.tanium.com/platform_deployment_reference/platform_deployment_reference/security_exceptions.html)</t>
+  </si>
+  <si>
+    <t>Tanium Integrity Monitor, Tanium Threat Response (https://docs.tanium.com/platform_deployment_reference/platform_deployment_reference/security_exceptions.html)</t>
+  </si>
+  <si>
+    <t>Tanium Assett, Tanium Performance, Tanium Threat Response (https://docs.tanium.com/platform_deployment_reference/platform_deployment_reference/security_exceptions.html)</t>
+  </si>
+  <si>
+    <t>Tanium Assett, Tanium Performance (https://docs.tanium.com/platform_deployment_reference/platform_deployment_reference/security_exceptions.html)</t>
+  </si>
+  <si>
+    <t>Tanium Integrity Monitor, Tanium Map, Tanium Threat Response (https://docs.tanium.com/platform_deployment_reference/platform_deployment_reference/security_exceptions.html)</t>
+  </si>
+  <si>
+    <t>Tanium 4+ modules (https://docs.tanium.com/platform_deployment_reference/platform_deployment_reference/security_exceptions.html)</t>
+  </si>
+  <si>
+    <t>Tanium Assett, Tanium Deploy, Tanium Patch (https://docs.tanium.com/platform_deployment_reference/platform_deployment_reference/security_exceptions.html)</t>
+  </si>
+  <si>
+    <t>Tanium (https://docs.tanium.com/platform_deployment_reference/platform_deployment_reference/security_exceptions.html)</t>
   </si>
 </sst>
 </file>
@@ -133,7 +563,214 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -443,14 +1080,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A56C331-EFFE-42C7-958B-073836209D1A}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="A2" sqref="A2:B51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="140.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -466,10 +1106,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -477,38 +1117,575 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C51">
+    <sortCondition ref="B2:B51"/>
+    <sortCondition ref="A2:A51"/>
+  </sortState>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597B7D58-BDAE-4874-9FA9-5F760B0C7D30}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="124.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -519,30 +1696,808 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>56</v>
+      </c>
+      <c r="B72" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C72">
+    <sortCondition ref="B2:B72"/>
+    <sortCondition ref="A2:A72"/>
+  </sortState>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55F7561-E442-497B-A533-9E35A5DCAF8A}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="140.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="191.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -558,38 +2513,713 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A51">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -598,19 +3228,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D56C3A-A8A5-43A1-9EFD-4D48E4663CEA}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.5546875" customWidth="1"/>
+    <col min="2" max="2" width="107.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -621,10 +3250,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -632,10 +3261,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -643,10 +3272,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
